--- a/GmailUpload/src/ExcelData.xlsx
+++ b/GmailUpload/src/ExcelData.xlsx
@@ -43,10 +43,10 @@
     <t>asxasa</t>
   </si>
   <si>
-    <t>ramineni1991</t>
-  </si>
-  <si>
     <t>afsgfhgvjh</t>
+  </si>
+  <si>
+    <t>asduhsquac</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -425,7 +425,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
